--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T11:38:03+02:00</t>
+    <t>2023-07-20T13:16:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T13:16:53+02:00</t>
+    <t>2023-07-21T08:53:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,7 +332,7 @@
     <t>no-basis-shortnotice</t>
   </si>
   <si>
-    <t>Pasient can come on short notice.</t>
+    <t>Patient can come on short notice.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -404,7 +404,7 @@
 </t>
   </si>
   <si>
-    <t>Pasient can come on short notice. Response is boolean</t>
+    <t>Patient can come on short notice. Response is boolean</t>
   </si>
   <si>
     <t>Extension.value[x]</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T08:53:22+02:00</t>
+    <t>2023-07-21T09:07:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>2.2.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:07:54+02:00</t>
+    <t>2023-08-24T14:49:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,6 +139,10 @@
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
   </si>
   <si>
+    <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -325,7 +329,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -388,7 +392,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1072,16 +1076,16 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>35</v>
@@ -1092,10 +1096,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1106,7 +1110,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1115,19 +1119,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1177,13 +1181,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1209,10 +1213,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1223,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1232,16 +1236,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1292,19 +1296,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1324,10 +1328,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1338,28 +1342,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1409,19 +1413,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1441,10 +1445,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1455,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -1467,16 +1471,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1502,13 +1506,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -1526,19 +1530,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -1558,21 +1562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -1584,16 +1588,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1643,25 +1647,25 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>35</v>
@@ -1675,14 +1679,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1701,16 +1705,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1760,7 +1764,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -1778,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>35</v>
@@ -1792,10 +1796,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1818,13 +1822,13 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1863,17 +1867,17 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -1885,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -1905,13 +1909,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>35</v>
@@ -1921,7 +1925,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>35</v>
@@ -1933,13 +1937,13 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1990,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -1999,10 +2003,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2022,10 +2026,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2036,7 +2040,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>35</v>
@@ -2048,13 +2052,13 @@
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2105,13 +2109,13 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>35</v>
@@ -2123,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -2137,10 +2141,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2163,13 +2167,13 @@
         <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2208,19 +2212,19 @@
         <v>35</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2232,7 +2236,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -2252,10 +2256,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2263,10 +2267,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
@@ -2278,16 +2282,16 @@
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2295,7 +2299,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>35</v>
@@ -2337,13 +2341,13 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
@@ -2355,7 +2359,7 @@
         <v>35</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>35</v>
@@ -2369,10 +2373,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2383,7 +2387,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -2395,13 +2399,13 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2452,25 +2456,25 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>35</v>
@@ -2484,14 +2488,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2504,25 +2508,25 @@
         <v>35</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -2571,7 +2575,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -2583,13 +2587,13 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>35</v>
@@ -2603,10 +2607,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2626,16 +2630,16 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2686,7 +2690,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -2698,19 +2702,19 @@
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>35</v>
@@ -2718,10 +2722,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2729,10 +2733,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -2741,16 +2745,16 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2801,25 +2805,25 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>35</v>
@@ -2833,10 +2837,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2847,7 +2851,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -2859,16 +2863,16 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2918,31 +2922,31 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>35</v>
@@ -2950,10 +2954,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2964,7 +2968,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -2976,13 +2980,13 @@
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3033,31 +3037,31 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>35</v>
@@ -3065,10 +3069,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3088,19 +3092,19 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3126,13 +3130,13 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>35</v>
@@ -3150,7 +3154,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3162,16 +3166,16 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
@@ -3182,10 +3186,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3196,7 +3200,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3205,16 +3209,16 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3265,42 +3269,42 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3308,31 +3312,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3358,13 +3362,13 @@
         <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>35</v>
@@ -3382,28 +3386,28 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
@@ -3414,10 +3418,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3428,7 +3432,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3440,16 +3444,16 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3499,28 +3503,28 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>35</v>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T14:49:19+02:00</t>
+    <t>2023-08-24T15:39:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,7 +140,7 @@
   </si>
   <si>
     <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T15:39:37+02:00</t>
+    <t>2023-10-04T22:15:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:15:59+02:00</t>
+    <t>2023-10-04T22:20:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:20:28+02:00</t>
+    <t>2023-10-05T18:44:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:44:58+02:00</t>
+    <t>2023-10-05T18:59:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:59:01+02:00</t>
+    <t>2023-10-05T22:34:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/output/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T22:34:13+02:00</t>
+    <t>2023-10-05T23:14:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Example Publisher</t>
+    <t>Hl7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
